--- a/PDRMYE/ENTREGABLES/Matriz de Puebas/Matiz de Pruebas PDRMYE MUNICIPIOS.xlsx
+++ b/PDRMYE/ENTREGABLES/Matriz de Puebas/Matiz de Pruebas PDRMYE MUNICIPIOS.xlsx
@@ -12,13 +12,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130"/>
   </bookViews>
   <sheets>
-    <sheet name="CPH" sheetId="1" r:id="rId1"/>
+    <sheet name="Municipios" sheetId="1" r:id="rId1"/>
     <sheet name="GRAFICOS" sheetId="7" r:id="rId2"/>
     <sheet name="Datos" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId4"/>
+    <pivotCache cacheId="8" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -685,6 +685,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" pivotButton="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -736,21 +751,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" pivotButton="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Énfasis6" xfId="1" builtinId="49"/>
@@ -867,7 +867,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1646,7 +1645,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -1778,7 +1776,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2079,7 +2076,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2200,7 +2196,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2969,7 +2964,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5043,7 +5037,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="INAP-QA" refreshedDate="45049.502842361115" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="350">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A6:N1048576" sheet="CPH"/>
+    <worksheetSource ref="A6:N1048576" sheet="Municipios"/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="N° Caso" numFmtId="0">
@@ -10723,79 +10717,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
-  <location ref="A24:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item m="1" x="8"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item m="1" x="7"/>
-        <item m="1" x="3"/>
-        <item m="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -10915,8 +10837,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:C51" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -11091,6 +11013,78 @@
     </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+  <location ref="A24:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item m="1" x="8"/>
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item m="1" x="7"/>
+        <item m="1" x="3"/>
+        <item m="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -11397,94 +11391,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
     </row>
     <row r="3" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="15" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
     </row>
     <row r="4" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="23" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
@@ -13560,66 +13554,66 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="14">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="18">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="18">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="16">
         <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="31">
+      <c r="B25" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="33">
+      <c r="B26" s="16">
         <v>4</v>
       </c>
     </row>
@@ -13646,10 +13640,10 @@
       <c r="A49" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B49" s="36">
+      <c r="B49" s="19">
         <v>2</v>
       </c>
-      <c r="C49" s="36">
+      <c r="C49" s="19">
         <v>2</v>
       </c>
     </row>
@@ -13657,10 +13651,10 @@
       <c r="A50" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B50" s="36">
+      <c r="B50" s="19">
         <v>2</v>
       </c>
-      <c r="C50" s="36">
+      <c r="C50" s="19">
         <v>2</v>
       </c>
     </row>
@@ -13668,10 +13662,10 @@
       <c r="A51" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="36">
+      <c r="B51" s="19">
         <v>4</v>
       </c>
-      <c r="C51" s="36">
+      <c r="C51" s="19">
         <v>4</v>
       </c>
     </row>
